--- a/Planificación del juego.xlsx
+++ b/Planificación del juego.xlsx
@@ -1,23 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15135" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gantt Chart" sheetId="2" r:id="rId1"/>
+    <sheet name="GRAFICO GANTT" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Fecha de Inicio</t>
+  </si>
+  <si>
+    <t>Movimiento personajes</t>
+  </si>
+  <si>
+    <t>IA Enemigos</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Implementación balas y puntajes</t>
+  </si>
+  <si>
+    <t>Creación arts (backgrounds y personajes)</t>
+  </si>
+  <si>
+    <t>Desarrollo Bosses</t>
+  </si>
+  <si>
+    <t>Implementación poderes</t>
+  </si>
+  <si>
+    <t>Menu pausa</t>
+  </si>
+  <si>
+    <t>Menu inicio</t>
+  </si>
+  <si>
+    <t>Dialogos</t>
+  </si>
+  <si>
+    <t>Esqueleto del juego</t>
+  </si>
+  <si>
+    <t>High score</t>
+  </si>
+  <si>
+    <t>Adaptar al arcade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,22 +103,692 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22127042569313188"/>
+          <c:y val="2.1357742181540813E-2"/>
+          <c:w val="0.76110495868623562"/>
+          <c:h val="0.82287825005855975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Esqueleto del juego</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Movimiento personajes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IA Enemigos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación balas y puntajes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Creación arts (backgrounds y personajes)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Desarrollo Bosses</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Implementación poderes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Menu pausa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menu inicio</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dialogos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High score</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adaptar al arcade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Esqueleto del juego</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Movimiento personajes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IA Enemigos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación balas y puntajes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Creación arts (backgrounds y personajes)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Desarrollo Bosses</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Implementación poderes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Menu pausa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menu inicio</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dialogos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High score</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adaptar al arcade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="169171200"/>
+        <c:axId val="169181184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="169171200"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169181184"/>
+        <c:crossesAt val="40550"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169181184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="d/m/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169171200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Esqueleto del juego</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Movimiento personajes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IA Enemigos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación balas y puntajes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Creación arts (backgrounds y personajes)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Desarrollo Bosses</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Implementación poderes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Menu pausa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menu inicio</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dialogos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High score</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adaptar al arcade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Esqueleto del juego</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Movimiento personajes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IA Enemigos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación balas y puntajes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Creación arts (backgrounds y personajes)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Desarrollo Bosses</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Implementación poderes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Menu pausa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menu inicio</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dialogos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High score</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adaptar al arcade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="135360512"/>
+        <c:axId val="135362048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135360512"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135362048"/>
+        <c:crossesAt val="40550"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135362048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40550"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="d/m/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135360512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Chart2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4286250" y="190499"/>
+    <xdr:ext cx="7926414" cy="4162425"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8658225" cy="6296025"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +1073,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41598</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <f>+B2</f>
+        <v>41598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41604</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D13" si="0">+B3</f>
+        <v>41604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41606</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>41606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41606</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>41606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41598</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>41598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41612</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>41612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>41613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>41608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>41608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41618</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>41618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41619</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>41619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41622</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>41622</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>